--- a/evaluation/sentence_sample/samples.xlsx
+++ b/evaluation/sentence_sample/samples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/COMP8800/diffSimilarTech/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/COMP8800/diffSimilarTech/evaluation/sentence_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B8A04A04-6633-1746-8CC9-FD49A2DF7902}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5FC64D29-7FC1-964A-9BFC-70051CF3CDFF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pattern1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="491">
   <si>
     <t>Pair</t>
   </si>
@@ -204,12 +204,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>opera	google-chrome</t>
-  </si>
-  <si>
-    <t>this code to date is only supported by a couple of the major browsers namely google-chrome  and opera  see more details here</t>
-  </si>
-  <si>
     <t>for-loop	loops</t>
   </si>
   <si>
@@ -237,12 +231,6 @@
     <t>you cannot directly use an expandablelistview for the spinner popup any more than you can directly use a listview for the spinner popup</t>
   </si>
   <si>
-    <t>profiler	visualvm</t>
-  </si>
-  <si>
-    <t>i suggest you try increasing your maximum to just under half your main memory and attach a profiler visualvm is better than nothing and see if where objects are being retained</t>
-  </si>
-  <si>
     <t>ecj	javac</t>
   </si>
   <si>
@@ -264,24 +252,12 @@
     <t>post gives you more options and dosn t have a limit on parameter query string length like get the only negative is post is slower by a couple of milliseconds to create the request</t>
   </si>
   <si>
-    <t>xslt	xquery</t>
-  </si>
-  <si>
-    <t>using xslt or xquery would be much better</t>
-  </si>
-  <si>
     <t>strtol	atoi</t>
   </si>
   <si>
     <t>the c function strtol is much better make it a habit to prefer that one to atoi</t>
   </si>
   <si>
-    <t>filesystems	btrfs</t>
-  </si>
-  <si>
-    <t>i now run my lxc containers on a btrfs filesystems to make it simpler to take a snapshot of the running containers</t>
-  </si>
-  <si>
     <t>innodb seems slightly faster than myisam but this is really marginal</t>
   </si>
   <si>
@@ -318,18 +294,6 @@
     <t>if your requirement is to store a key with value as json then mongodb is a better fit in this scenario as by default mongodb stores data in bson which is json + additional data types</t>
   </si>
   <si>
-    <t>lisp	scheme</t>
-  </si>
-  <si>
-    <t>overall common lisp is much more uniform than scheme and more radical language experiments if done at all are usually embedded as a portable library rather than defining a whole new language dialect</t>
-  </si>
-  <si>
-    <t>clang	llvm</t>
-  </si>
-  <si>
-    <t>you may notice that modules in clang llvm are faster than precompiled headers</t>
-  </si>
-  <si>
     <t>or maybe i want to use mysql for forum posts but postgresql for geo-clustering more realistic for me heh</t>
   </si>
   <si>
@@ -390,12 +354,6 @@
     <t>since perforce is less commonly used compared to cvs svn amongst bamboo users we generally get less feedback about it and hear less about existing issues</t>
   </si>
   <si>
-    <t>explode	implode</t>
-  </si>
-  <si>
-    <t>i m not sure why you d serialize it in php either because implode and explode would be more appropriate</t>
-  </si>
-  <si>
     <t>.htaccess	httpd.conf</t>
   </si>
   <si>
@@ -444,12 +402,6 @@
     <t>ienumerable is less specific than an ilist that is ilist has functions that ienumerable does not</t>
   </si>
   <si>
-    <t>gif	png</t>
-  </si>
-  <si>
-    <t>this properly means if the file is an image of gif or jpeg or png and is less than that size</t>
-  </si>
-  <si>
     <t>a for-loop is faster than a foreach loops</t>
   </si>
   <si>
@@ -525,9 +477,6 @@
     <t>obviously md is much more difficult to reverse even in this anything that will hash to the right value sense then a simplistic algorithm like take the last two digits</t>
   </si>
   <si>
-    <t>google-chrome and firefox seem much more forgiving but with ie  the inclusion of a bad caused a blank view to be displayed</t>
-  </si>
-  <si>
     <t>testing and support of ant code is quite expensive and integration with maven adds even more complexity</t>
   </si>
   <si>
@@ -570,12 +519,6 @@
     <t>the robocopy command provides a more intelligent exclusion feature switches xd and xf than xcopy does which you could use for your task</t>
   </si>
   <si>
-    <t>jsf	seam</t>
-  </si>
-  <si>
-    <t>well for that you ll need jsf that is better integrated with seam and jsf does not handle file uploads that actually everyone use so you have to put also icefaces that actually are better managed by maven that you currenty are not using... neverending story</t>
-  </si>
-  <si>
     <t>apache	nginx	gunicorn	uwsgi</t>
   </si>
   <si>
@@ -654,9 +597,6 @@
     <t>in my experience google-chrome will be a lot faster than firefox to debug huge js files</t>
   </si>
   <si>
-    <t>mongodb is fun to toy with and i ve built a few apps using it myself for that reason but it s almost never a better choice than postgresql mysql sql server etc</t>
-  </si>
-  <si>
     <t>myisam is better than innodb when you don t need those advanced features and storage speed is more important than other concerns</t>
   </si>
   <si>
@@ -678,15 +618,6 @@
     <t>ati	nvidia</t>
   </si>
   <si>
-    <t>ie handles updates better than google-chrome and firefox</t>
-  </si>
-  <si>
-    <t>textcontainer s height need to be set depending on the content height for it to work and that is no better than using uitextview or uilabel</t>
-  </si>
-  <si>
-    <t>uilabel	uitextview</t>
-  </si>
-  <si>
     <t>i got a draggable object done with jquery ui and when i drag it it s way slower than i move my mouse</t>
   </si>
   <si>
@@ -747,27 +678,12 @@
     <t>floating-point	integer</t>
   </si>
   <si>
-    <t>the problem is that if i have more than one checkbox checked and i want to uncheck one the button disables</t>
-  </si>
-  <si>
     <t>button	checkbox</t>
   </si>
   <si>
     <t>if i remember correctly int take up less storage than chars so you should go with int</t>
   </si>
   <si>
-    <t>the idea is that if they are using ie then they must install google-chrome frame and if they are using less than firefox 4 or opera 11.5 then they must upgrade their browser not not sure if the way i am doing that is correct</t>
-  </si>
-  <si>
-    <t>opera	firefox	opera	google-chrome	google-chrome	firefox</t>
-  </si>
-  <si>
-    <t>in the non open-source world choices are wider such as qnx neutrino and vxworks</t>
-  </si>
-  <si>
-    <t>vxworks	qnx</t>
-  </si>
-  <si>
     <t>memcmp is simpler than strcmp and can be implemented even more efficiently in places where the strings are known to be properly aligned</t>
   </si>
   <si>
@@ -780,21 +696,12 @@
     <t>trie	tree</t>
   </si>
   <si>
-    <t>try reading this link also for more study over hdpi and mdpi concept</t>
-  </si>
-  <si>
     <t>instead of using a uitableview in this instance perhaps you might consider using a uicollectionview - they are built for something like you describe more than a uitableview</t>
   </si>
   <si>
     <t>uicollectionview	uitableview</t>
   </si>
   <si>
-    <t>a ng-app can have more than 1 ng-controller</t>
-  </si>
-  <si>
-    <t>ng-app	ng-controller</t>
-  </si>
-  <si>
     <t>+ consider that the implementation of tcp stack is much more complicated than udp more instructions are executed there</t>
   </si>
   <si>
@@ -819,9 +726,6 @@
     <t>moq	fakeiteasy</t>
   </si>
   <si>
-    <t>i would recommend against taking this decision lightly it s a good deal more complex than tcp udp amqp etc</t>
-  </si>
-  <si>
     <t>first just a heads up you may want to try firebug+firepath on firefox which is a more handy tool than google-chrome s developer tool</t>
   </si>
   <si>
@@ -864,9 +768,6 @@
     <t>hex	binary</t>
   </si>
   <si>
-    <t>hardware-specific optimizations makes the code even more complex such as sse avx optimizations for x86 x64</t>
-  </si>
-  <si>
     <t>also you should consider using nginx as server that s more flexible than apache</t>
   </si>
   <si>
@@ -1005,9 +906,6 @@
     <t>in my experience udp based code is generally less complex than tcp based code</t>
   </si>
   <si>
-    <t>in general i have found google-chrome to be more finnicky than firefox</t>
-  </si>
-  <si>
     <t>long story short my question is why should i prefer client-side over server-side hashing</t>
   </si>
   <si>
@@ -1035,12 +933,6 @@
     <t>calloc	malloc</t>
   </si>
   <si>
-    <t>so i would have to choose between heroku dotcloud and openshift</t>
-  </si>
-  <si>
-    <t>heroku	openshift</t>
-  </si>
-  <si>
     <t>i used to favor bottle over flask for this very reason flask has a different way of doing it though</t>
   </si>
   <si>
@@ -1059,9 +951,6 @@
     <t>can anyone please explain why the compiler chooses chars over int for inh p1 in this example</t>
   </si>
   <si>
-    <t>note i found an issue if i debbug select with google-chrome or firefox i</t>
-  </si>
-  <si>
     <t>i recommend homebrew over macports for package installing</t>
   </si>
   <si>
@@ -1086,12 +975,6 @@
     <t>haskell	elm</t>
   </si>
   <si>
-    <t>if you have a bulk of files you want to do this to what you re probably going to want to do is write a script in a hll with a decent html parser i recommend python with lxml or beautifulsoup and then run it over your code</t>
-  </si>
-  <si>
-    <t>with clang you can choose between libc++ clang s and libstdc++ gcc s</t>
-  </si>
-  <si>
     <t>i have no doubts in domparser and people prefer saxparser than domparser because of the memory it takes</t>
   </si>
   <si>
@@ -1107,18 +990,6 @@
     <t>i d recommend lxml over beautifulsoup when you start scraping alot of pages the speed advantage of lxml is hard to ignore</t>
   </si>
   <si>
-    <t>gethashcode is contractually required to return the same result for any two structs that compare as equals</t>
-  </si>
-  <si>
-    <t>equals	gethashcode</t>
-  </si>
-  <si>
-    <t>when i create a new jbpm project in eclipse and select create as maven project the pom.xml is generated without the dependency section</t>
-  </si>
-  <si>
-    <t>maven	pom.xml</t>
-  </si>
-  <si>
     <t>as far as i am aware the only non-trivial reason to choose myisam over innodb is for full-text indexing</t>
   </si>
   <si>
@@ -1134,9 +1005,6 @@
     <t>rsa	aes</t>
   </si>
   <si>
-    <t>in the method attribute choose between get and post</t>
-  </si>
-  <si>
     <t>i choose button over checkbox in this case because i think they are handier and faster to work with</t>
   </si>
   <si>
@@ -1158,12 +1026,6 @@
     <t>gridbaglayout	miglayout</t>
   </si>
   <si>
-    <t>don t reinvent the wheel and choose between udp and tcp until you re completely sure you need something more sophisticated but not simpler</t>
-  </si>
-  <si>
-    <t>see how to choose between get or post here</t>
-  </si>
-  <si>
     <t>also i recommend gitolite over gitosis</t>
   </si>
   <si>
@@ -1173,12 +1035,6 @@
     <t>the kernel developers recommend heapsort over quicksort within the kernel and give the following rationale</t>
   </si>
   <si>
-    <t>i would choose between ilist and ienumerable and wouldn t consider array at all</t>
-  </si>
-  <si>
-    <t>how would reading the data compare with mysql postgresql</t>
-  </si>
-  <si>
     <t>if you have a function in mind that might be more complicated as you describe i would recommend going with purrr and map rather than do from dplyr</t>
   </si>
   <si>
@@ -1200,39 +1056,15 @@
     <t>one thing to consider is the magento environment tuning the php the web server favor nginx over apache and mysql</t>
   </si>
   <si>
-    <t>select settings under filtering keys grouping in here you can switch off repeating keys for that user on that machine</t>
-  </si>
-  <si>
-    <t>filtering	grouping</t>
-  </si>
-  <si>
-    <t>compareto compares values and returns an int which tells if the values compare less than equals or greater than</t>
-  </si>
-  <si>
-    <t>so if you do not have hard preference for some of this editors choose between emacs or atom-editor to code elixir in</t>
-  </si>
-  <si>
-    <t>emacs	atom-editor</t>
-  </si>
-  <si>
     <t>i prefer kohana over codeigniter ymmv</t>
   </si>
   <si>
     <t>codeigniter	kohana</t>
   </si>
   <si>
-    <t>if you don t have any specific container to run your application you can choose between jboss 7 and wildfly and wants to run spring java config try it out on wildfly</t>
-  </si>
-  <si>
-    <t>wildfly	jboss</t>
-  </si>
-  <si>
     <t>i d recommend using post but get also works fine</t>
   </si>
   <si>
-    <t>that page recommends using mysql or postgresql</t>
-  </si>
-  <si>
     <t>i recommend using zsh instead of bash</t>
   </si>
   <si>
@@ -1254,18 +1086,6 @@
     <t>security wise i prefer using post than get as it gives at least some opaqueness as to what is being passed as a parameter and not anyone can just edit the url and play around</t>
   </si>
   <si>
-    <t>it recommends using tidy or htmlpurifier</t>
-  </si>
-  <si>
-    <t>htmlpurifier	tidy</t>
-  </si>
-  <si>
-    <t>i recommend using domdocument and domxpath</t>
-  </si>
-  <si>
-    <t>domxpath	domdocument</t>
-  </si>
-  <si>
     <t>i would recommend using post rather than get for this since i assume it will make a change on your server</t>
   </si>
   <si>
@@ -1275,15 +1095,6 @@
     <t>highcharts	raphael</t>
   </si>
   <si>
-    <t>however i would prefer using ng-show ng-switch or ng-if</t>
-  </si>
-  <si>
-    <t>ng-switch	ng-show</t>
-  </si>
-  <si>
-    <t>as a begginer the frameworks that i best recommend are flask and django and other flask- restful or restless or other packages that mantain the flask- part fixed and the name after the - changes</t>
-  </si>
-  <si>
     <t>they recommend using maven and i thought this would help so i downloaded m2e and the android m2e plugin from the android marketplace</t>
   </si>
   <si>
@@ -1305,18 +1116,12 @@
     <t>i d suggest using addition instead of multiplication in this case as processors are much faster in addition than multiplication</t>
   </si>
   <si>
-    <t>i prefer using getter setter</t>
-  </si>
-  <si>
     <t>i d recommend using tcpdf instead of fpdf</t>
   </si>
   <si>
     <t>tcpdf	fpdf</t>
   </si>
   <si>
-    <t>so i recommend using webclient or httpwebrequest</t>
-  </si>
-  <si>
     <t>developer s guide doesn t recommend using getter when you can use direct field access avoid internal getter setter</t>
   </si>
   <si>
@@ -1329,39 +1134,18 @@
     <t>i would prefer using setinterval instead of settimeout</t>
   </si>
   <si>
-    <t>the match specifies https but that site does not support ssl</t>
-  </si>
-  <si>
-    <t>ssl	https</t>
-  </si>
-  <si>
-    <t>i recommend using gson or jackson to convert back and for from java json</t>
-  </si>
-  <si>
-    <t>gson	jackson</t>
-  </si>
-  <si>
     <t>i m not sure i understand your problem entirely but if you want to work with directives on those elements i would recommend using ng-show instead of ng-hide as the latter can really screw with any event handlers you apply via directives</t>
   </si>
   <si>
     <t>ng-show	ng-hide</t>
   </si>
   <si>
-    <t>i also recommend using setinterval and clearinterval which are builtins designed to call events at a specified interval so you don t have to re-schedule a timeout on each call</t>
-  </si>
-  <si>
-    <t>setinterval	clearinterval</t>
-  </si>
-  <si>
     <t>i prefer using dplyr over purrr</t>
   </si>
   <si>
     <t>i would recommend using theano binary lstm link or keras tutorial for this because they are fairly simple to understand and are well documented</t>
   </si>
   <si>
-    <t>theano	keras</t>
-  </si>
-  <si>
     <t>for video streaming i would recommend using udp instead of tcp as it has less overhead and packet confirmation is usually not needed as the retransmited data would already be obsolete</t>
   </si>
   <si>
@@ -1380,42 +1164,18 @@
     <t>listview	gridview</t>
   </si>
   <si>
-    <t>i d recommend exploring client-side ui technologies to use in conjun ction with your java ee server-side stuff</t>
-  </si>
-  <si>
-    <t>in intellij idea when you tip alt + inser select generate getter and setter select your property and it s done</t>
-  </si>
-  <si>
     <t>here i also recommend using settimeout instead of setinterval</t>
   </si>
   <si>
     <t>also i recommend using post instead of get</t>
   </si>
   <si>
-    <t>i would prefer using macports or fink as a package system</t>
-  </si>
-  <si>
-    <t>fink	macports</t>
-  </si>
-  <si>
     <t>lxml is a good one i personally prefer using beautifulsoup as it uses lxml for some of its heavy lifting but has other features as well and is more user-friendly especially for quick matches</t>
   </si>
   <si>
-    <t>for fasta formats in general i would recommend using biopython package</t>
-  </si>
-  <si>
-    <t>fasta	biopython</t>
-  </si>
-  <si>
     <t>i would prefer using nsurlsession instead of nsurlconnection</t>
   </si>
   <si>
-    <t>anyway it should be a good choice if you are a fan if microsoft but if you are not i strongly recommend using wordpress drupal or joomla</t>
-  </si>
-  <si>
-    <t>wordpress	joomla</t>
-  </si>
-  <si>
     <t>for security reasons i recommend using post instead get if you have authentication in this</t>
   </si>
   <si>
@@ -1431,12 +1191,6 @@
     <t>instead of using setinterval at a fixed 5s interval which is not dependent on the rest of the calls i would recommend using settimeout every time that the method actually is successful</t>
   </si>
   <si>
-    <t>i strongly recommend using googletest and gmock both used extensively at google for your testing</t>
-  </si>
-  <si>
-    <t>googletest	gmock</t>
-  </si>
-  <si>
     <t>in the post page google strongly recommends using put unless dealing with form data</t>
   </si>
   <si>
@@ -1446,13 +1200,304 @@
     <t>also i prefer using post instead of get because get is cacheable</t>
   </si>
   <si>
-    <t>i d recommend using csv tsv to store data as relational tables otherwise you can get into a bit of messy outputs</t>
-  </si>
-  <si>
-    <t>csv	tsv</t>
-  </si>
-  <si>
     <t>if you want to go open source i would recommend using postgresql instead of mysql</t>
+  </si>
+  <si>
+    <t>please don t change code like using ng-hide instead of ng-show and add more extra div</t>
+  </si>
+  <si>
+    <t>ng-show ng-hide</t>
+  </si>
+  <si>
+    <t>using a different server such as one apache and one nginx or one apache and one lighttpd will be much easier because their configuration files don t conflict with each other</t>
+  </si>
+  <si>
+    <t>apache lighttpd apache nginx nginx lighttpd</t>
+  </si>
+  <si>
+    <t>you could use libwww-perl perldoc lwp and have more control about the download process</t>
+  </si>
+  <si>
+    <t>lwp libwww-perl</t>
+  </si>
+  <si>
+    <t>also i have tried the accelerometer sensor and it worked but i m asking to check whether the gyroscope is more accurate to this function or the accelerometer</t>
+  </si>
+  <si>
+    <t>accelerometer gyroscope</t>
+  </si>
+  <si>
+    <t>to summarise the differences controllers in the mvc have more control over the ui and handle events while a presenter in the mvp is more passive and just presents information through the ui</t>
+  </si>
+  <si>
+    <t>mvp presenter</t>
+  </si>
+  <si>
+    <t>however since i m used to apache it was faster for me to configure the site to run on apache and switch to nginx when performance problems occured</t>
+  </si>
+  <si>
+    <t>apache nginx</t>
+  </si>
+  <si>
+    <t>the advantage here is this membership provider uses pbkdf2 to derive the hash which is more resistant to brute force attacks given the number of rounds</t>
+  </si>
+  <si>
+    <t>pbkdf2 hash</t>
+  </si>
+  <si>
+    <t>right now i would have to say the put method is better since it works and i could not get the webservice to work</t>
+  </si>
+  <si>
+    <t>put get</t>
+  </si>
+  <si>
+    <t>what about using more than one encoder to encode my code because if we take a look at ioncube you will see some people can decoder it</t>
+  </si>
+  <si>
+    <t>decoder encoder</t>
+  </si>
+  <si>
+    <t>for your purpose you would probably be better off with a sorteddictionary class or perhaps sortedlist</t>
+  </si>
+  <si>
+    <t>sortedlist sorteddictionary</t>
+  </si>
+  <si>
+    <t>internet explorer s limit is lower than firefox s or google-chrome s and varies between versions</t>
+  </si>
+  <si>
+    <t>google-chrome firefox</t>
+  </si>
+  <si>
+    <t>i have a larger view with a textview and an imageview inside of it</t>
+  </si>
+  <si>
+    <t>textview imageview</t>
+  </si>
+  <si>
+    <t>many other antivirus software that works just as well if not better than norton like avg avast and others do allow you to uninstall from the add remove</t>
+  </si>
+  <si>
+    <t>antivirus norton</t>
+  </si>
+  <si>
+    <t>it checks for one or more spaces as field delimiter and also tabs</t>
+  </si>
+  <si>
+    <t>spaces delimiter</t>
+  </si>
+  <si>
+    <t>when there is more than 1 checkbox s they do not work as a group like radio button such that only one 1 radio button can be selected when there is more than 1</t>
+  </si>
+  <si>
+    <t>button checkbox</t>
+  </si>
+  <si>
+    <t>sublimetext has better performance than atom-editor</t>
+  </si>
+  <si>
+    <t>atom-editor sublimetext</t>
+  </si>
+  <si>
+    <t>personally i find shark more useful than instrumentation for profiling my code and finding out what s taking up time when it matters</t>
+  </si>
+  <si>
+    <t>profiling instrumentation</t>
+  </si>
+  <si>
+    <t>the compiler is free to choose a method that is more efficient than memmove</t>
+  </si>
+  <si>
+    <t>free memmove</t>
+  </si>
+  <si>
+    <t>i success in plotting distance with points but i need more visual plot with heatmap</t>
+  </si>
+  <si>
+    <t>plot heatmap</t>
+  </si>
+  <si>
+    <t>i use and recommend xquery over xslt</t>
+  </si>
+  <si>
+    <t>xslt xquery</t>
+  </si>
+  <si>
+    <t>select spaces as delimiter and click on finish and you are done</t>
+  </si>
+  <si>
+    <t>i prefer cobertura over emma</t>
+  </si>
+  <si>
+    <t>cobertura emma</t>
+  </si>
+  <si>
+    <t>just use a factory function to create a new object through malloc and do not forget to destroy with free any allocated object</t>
+  </si>
+  <si>
+    <t>free malloc</t>
+  </si>
+  <si>
+    <t>i m using the random class in my struct s compareto to pick with equals probability one of the structs when both have the same field values</t>
+  </si>
+  <si>
+    <t>equals compareto</t>
+  </si>
+  <si>
+    <t>i need a class that user select work with fifo or lifo the combination of queue class and stack class</t>
+  </si>
+  <si>
+    <t>queue fifo</t>
+  </si>
+  <si>
+    <t>we compare objects by comparator your movie class must implement comparable interface in order to compare its objects with one another</t>
+  </si>
+  <si>
+    <t>comparator comparable</t>
+  </si>
+  <si>
+    <t>i am trying saucelabs to run appium tests and i want to compare it with browserstack</t>
+  </si>
+  <si>
+    <t>saucelabs browserstack</t>
+  </si>
+  <si>
+    <t>however if two objects do not compare as equals the gethashcode methods for the two object do not have to return different values</t>
+  </si>
+  <si>
+    <t>equals gethashcode</t>
+  </si>
+  <si>
+    <t>depending on who you ask it is either wonderful or evil since it competes with swing and makes use of native os widgets swt</t>
+  </si>
+  <si>
+    <t>swt swing</t>
+  </si>
+  <si>
+    <t>now i could make those subclassing of my orientation class but the googles have told me to prefer composition over inherited</t>
+  </si>
+  <si>
+    <t>inherited subclassing</t>
+  </si>
+  <si>
+    <t>i would recommend sticking with osx - mavericks for this as i have notice issues with el capitan and yosemite</t>
+  </si>
+  <si>
+    <t>osx yosemite</t>
+  </si>
+  <si>
+    <t>when i click on the button will display popup table for user choose items by checkbox</t>
+  </si>
+  <si>
+    <t>since you using toupper compare with uppercase string value like below</t>
+  </si>
+  <si>
+    <t>toupper uppercase</t>
+  </si>
+  <si>
+    <t>after a few weeks of effort it should not be too difficult to beat eigen with avx and openmp eigen only supports sse but it s highly unlikely you will beat mkl</t>
+  </si>
+  <si>
+    <t>sse avx</t>
+  </si>
+  <si>
+    <t>in general when writing swift code i would recommend using swift types as much as possible not objective-c types</t>
+  </si>
+  <si>
+    <t>swift objective-c</t>
+  </si>
+  <si>
+    <t>facebooker is no longer supported i recommend using koala gem</t>
+  </si>
+  <si>
+    <t>facebooker koala</t>
+  </si>
+  <si>
+    <t>i recommend using nginx instead of apache</t>
+  </si>
+  <si>
+    <t>for the blank input requirement i recommend changing loops to a for-loop</t>
+  </si>
+  <si>
+    <t>for-loop loops</t>
+  </si>
+  <si>
+    <t>i recommend using chmod after mkdir</t>
+  </si>
+  <si>
+    <t>chmod mkdir</t>
+  </si>
+  <si>
+    <t>there s an awesome tool called jsfiddle that will help - also i recommend using google-chrome dev tools or firebug for firefox</t>
+  </si>
+  <si>
+    <t>i d recommend trying ant first and grokking it before tackling maven</t>
+  </si>
+  <si>
+    <t>ant maven</t>
+  </si>
+  <si>
+    <t>i would recommend using profiler on your actual code the one with global write to see if there s anything like unaligned access or other perf problem</t>
+  </si>
+  <si>
+    <t>profiler perf</t>
+  </si>
+  <si>
+    <t>also i d recommend storing salt password hash rather than plaintext strings</t>
+  </si>
+  <si>
+    <t>hash salt</t>
+  </si>
+  <si>
+    <t>personally i would recommend using configparser which comes with python or perhaps configobj which i like better</t>
+  </si>
+  <si>
+    <t>configobj configparser</t>
+  </si>
+  <si>
+    <t>i d recommend using https as you do seem to be sending authentication data over websockets which will also use the ssl no</t>
+  </si>
+  <si>
+    <t>ssl https</t>
+  </si>
+  <si>
+    <t>to resolve the issue right click in the resolved dependencies pane in the pom.xml dependency hierarchy and choose exclude maven atrifact</t>
+  </si>
+  <si>
+    <t>maven pom.xml</t>
+  </si>
+  <si>
+    <t>i recommend using maven eclipse and m2e</t>
+  </si>
+  <si>
+    <t>maven m2e</t>
+  </si>
+  <si>
+    <t>i would also recommend using pyserial if you have a very simple setup and only two xbee but if you have anything more complicated then you are better off with a library</t>
+  </si>
+  <si>
+    <t>xbee pyserial</t>
+  </si>
+  <si>
+    <t>so in your compareto add an if to check when wins are equals and then inside that if do the check on losses</t>
+  </si>
+  <si>
+    <t>theano keras</t>
+  </si>
+  <si>
+    <t>anyway i would recommend installing setuptools and pip first then you can install virtualenv from pip pip install virtualenv</t>
+  </si>
+  <si>
+    <t>virtualenv setuptools</t>
+  </si>
+  <si>
+    <t>however to make it more generalized i ll recommend using fgets to take the input then using strtok to tokenize the input and use</t>
+  </si>
+  <si>
+    <t>fgets strtok</t>
+  </si>
+  <si>
+    <t>in swift as objective-c there is far less emphasis on subclassing than other languages</t>
   </si>
 </sst>
 </file>
@@ -1508,10 +1553,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1815,23 +1866,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="154.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1840,76 +1891,76 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>395</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>66</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
+        <v>459</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
+        <v>393</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1917,10 +1968,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1928,10 +1979,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1939,10 +1990,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1950,10 +2001,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1961,10 +2012,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1972,10 +2023,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1985,7 +2036,7 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
@@ -1994,10 +2045,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2005,10 +2056,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2016,10 +2067,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2027,21 +2078,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2049,10 +2100,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2060,10 +2111,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2071,10 +2122,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2082,10 +2133,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2093,10 +2144,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2104,10 +2155,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2115,10 +2166,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2126,10 +2177,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2137,10 +2188,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2148,32 +2199,32 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
+        <v>87</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2181,10 +2232,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
+        <v>24</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2194,8 +2245,8 @@
       <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" t="s">
-        <v>65</v>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2203,10 +2254,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
+        <v>24</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2214,32 +2265,32 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
+        <v>24</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2247,21 +2298,21 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
+        <v>16</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2269,32 +2320,32 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2302,21 +2353,21 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" t="s">
-        <v>84</v>
+        <v>22</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
+        <v>64</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2324,10 +2375,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
+        <v>18</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2335,10 +2386,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2346,21 +2397,21 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>90</v>
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2368,27 +2419,19 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:C53">
+    <sortCondition ref="C2:C53"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2397,20 +2440,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8096DAC4-081A-0C41-B4F7-39316F24D616}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="143.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2419,21 +2463,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
+        <v>399</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>100</v>
+        <v>403</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2441,54 +2485,54 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
+        <v>401</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
+        <v>405</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>404</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
+        <v>407</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2496,10 +2540,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2507,10 +2551,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
+        <v>121</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2518,10 +2562,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2529,10 +2573,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" t="s">
-        <v>116</v>
+        <v>164</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2540,10 +2584,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2551,10 +2595,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
+        <v>105</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2562,21 +2606,21 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" t="s">
-        <v>124</v>
+        <v>107</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2584,10 +2628,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" t="s">
-        <v>126</v>
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2595,10 +2639,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" t="s">
-        <v>128</v>
+        <v>59</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2606,21 +2650,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" t="s">
-        <v>130</v>
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>131</v>
+        <v>97</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2628,10 +2672,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>132</v>
+        <v>144</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2639,10 +2683,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" t="s">
-        <v>134</v>
+        <v>148</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2650,10 +2694,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" t="s">
-        <v>136</v>
+        <v>123</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2661,10 +2705,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2672,21 +2716,21 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" t="s">
-        <v>140</v>
+        <v>151</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
+        <v>153</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2694,10 +2738,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" t="s">
-        <v>143</v>
+        <v>126</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2705,10 +2749,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" t="s">
-        <v>145</v>
+        <v>95</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2716,21 +2760,21 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>148</v>
+        <v>160</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2738,21 +2782,21 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" t="s">
-        <v>150</v>
+        <v>135</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" t="s">
-        <v>152</v>
+        <v>135</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2760,10 +2804,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" t="s">
-        <v>153</v>
+        <v>91</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2771,10 +2815,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" t="s">
-        <v>155</v>
+        <v>111</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2782,10 +2826,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" t="s">
-        <v>157</v>
+        <v>128</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2793,9 +2837,9 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C36" t="s">
@@ -2804,21 +2848,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" t="s">
-        <v>161</v>
+        <v>33</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B38" t="s">
-        <v>163</v>
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2826,10 +2870,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>164</v>
-      </c>
-      <c r="B39" t="s">
-        <v>165</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2837,21 +2881,21 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
         <v>166</v>
       </c>
+      <c r="B40" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>167</v>
+        <v>146</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2859,10 +2903,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" t="s">
-        <v>169</v>
+        <v>155</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2870,10 +2914,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" t="s">
-        <v>171</v>
+        <v>142</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2881,10 +2925,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B44" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2892,21 +2936,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" t="s">
-        <v>175</v>
+        <v>138</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" t="s">
-        <v>176</v>
+        <v>113</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2914,10 +2958,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" t="s">
-        <v>178</v>
+        <v>103</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2925,49 +2969,52 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B48" t="s">
-        <v>180</v>
+        <v>157</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>181</v>
-      </c>
-      <c r="B49" t="s">
-        <v>182</v>
+        <v>133</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>183</v>
-      </c>
-      <c r="B50" t="s">
-        <v>184</v>
+        <v>130</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" t="s">
-        <v>186</v>
+        <v>99</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C53">
+    <sortCondition ref="C2:C53"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2977,15 +3024,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B65619-BC60-554B-A180-0A695F923CCD}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="129" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2994,10 +3047,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" t="s">
-        <v>254</v>
+        <v>417</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -3005,32 +3058,32 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
+        <v>421</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" t="s">
-        <v>252</v>
+        <v>409</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" t="s">
-        <v>251</v>
+        <v>413</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>412</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -3038,43 +3091,43 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
+        <v>411</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
+        <v>419</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" t="s">
-        <v>249</v>
+        <v>415</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" t="s">
-        <v>247</v>
+        <v>93</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3082,43 +3135,43 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" t="s">
-        <v>245</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" t="s">
-        <v>243</v>
+        <v>196</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" t="s">
-        <v>242</v>
+        <v>423</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+        <v>183</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3126,10 +3179,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
+        <v>200</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3137,10 +3190,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
+        <v>185</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3148,21 +3201,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" t="s">
-        <v>240</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3170,10 +3223,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>239</v>
-      </c>
-      <c r="B18" t="s">
-        <v>238</v>
+        <v>176</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3181,10 +3234,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" t="s">
-        <v>236</v>
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3192,10 +3245,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>235</v>
+        <v>181</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3203,21 +3256,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" t="s">
-        <v>233</v>
+        <v>49</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3225,10 +3278,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" t="s">
-        <v>230</v>
+        <v>59</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3236,10 +3289,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>229</v>
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3247,10 +3300,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B25" t="s">
-        <v>228</v>
+        <v>214</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3258,32 +3311,32 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B26" t="s">
-        <v>226</v>
+        <v>171</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" t="s">
-        <v>225</v>
+        <v>171</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
-        <v>224</v>
+      <c r="B28" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3291,10 +3344,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>223</v>
-      </c>
-      <c r="B29" t="s">
-        <v>222</v>
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3302,10 +3355,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B30" t="s">
-        <v>220</v>
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3313,32 +3366,32 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>217</v>
+        <v>151</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B33" t="s">
-        <v>215</v>
+        <v>174</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3346,10 +3399,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" t="s">
-        <v>213</v>
+        <v>204</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3357,10 +3410,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B35" t="s">
-        <v>212</v>
+        <v>160</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3368,10 +3421,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B36" t="s">
-        <v>211</v>
+        <v>187</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3379,10 +3432,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>210</v>
+        <v>220</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3390,21 +3443,21 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
-        <v>209</v>
+        <v>198</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3412,10 +3465,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" t="s">
-        <v>207</v>
+        <v>194</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3423,10 +3476,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41" t="s">
-        <v>205</v>
+        <v>24</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3434,32 +3487,32 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>204</v>
-      </c>
-      <c r="B42" t="s">
-        <v>203</v>
+        <v>33</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" t="s">
-        <v>201</v>
+        <v>209</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>200</v>
-      </c>
-      <c r="B44" t="s">
-        <v>199</v>
+        <v>155</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3467,10 +3520,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" t="s">
-        <v>198</v>
+        <v>41</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3478,10 +3531,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>197</v>
-      </c>
-      <c r="B46" t="s">
-        <v>196</v>
+        <v>169</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3489,32 +3542,32 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>195</v>
-      </c>
-      <c r="B47" t="s">
-        <v>194</v>
+        <v>222</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" t="s">
-        <v>192</v>
+        <v>14</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" t="s">
-        <v>191</v>
+        <v>224</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3522,10 +3575,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" t="s">
-        <v>189</v>
+        <v>28</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3533,16 +3586,19 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" t="s">
-        <v>187</v>
+        <v>178</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C52">
+    <sortCondition ref="C2:C52"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3551,15 +3607,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52899F0-7F76-3842-89D1-A9D0E14980BF}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="169.83203125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3568,43 +3630,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>326</v>
+        <v>427</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>325</v>
+        <v>429</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" t="s">
-        <v>323</v>
+        <v>425</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>424</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" t="s">
-        <v>322</v>
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3612,10 +3674,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" t="s">
-        <v>321</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3623,10 +3685,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" t="s">
-        <v>319</v>
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3634,10 +3696,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>318</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3645,10 +3707,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B9" t="s">
-        <v>316</v>
+        <v>196</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3656,10 +3718,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B10" t="s">
-        <v>314</v>
+        <v>200</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3667,10 +3729,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B11" t="s">
-        <v>313</v>
+        <v>272</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3678,10 +3740,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B12" t="s">
-        <v>311</v>
+        <v>256</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3689,10 +3751,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B13" t="s">
-        <v>309</v>
+        <v>119</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3700,10 +3762,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>308</v>
+        <v>287</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3711,10 +3773,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>307</v>
+        <v>282</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3722,10 +3784,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>306</v>
+        <v>264</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3733,10 +3795,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>305</v>
-      </c>
-      <c r="B17" t="s">
-        <v>304</v>
+        <v>176</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3744,10 +3806,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>303</v>
+        <v>176</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3755,10 +3817,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" t="s">
-        <v>302</v>
+        <v>176</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3766,10 +3828,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>301</v>
-      </c>
-      <c r="B20" t="s">
-        <v>300</v>
+        <v>259</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3777,10 +3839,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>299</v>
-      </c>
-      <c r="B21" t="s">
-        <v>298</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3788,10 +3850,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>297</v>
-      </c>
-      <c r="B22" t="s">
-        <v>296</v>
+        <v>227</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3799,10 +3861,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>295</v>
+        <v>246</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3810,10 +3872,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>294</v>
+        <v>171</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3821,10 +3883,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" t="s">
-        <v>293</v>
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3832,10 +3894,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>292</v>
-      </c>
-      <c r="B26" t="s">
-        <v>291</v>
+        <v>249</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3843,10 +3905,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B27" t="s">
-        <v>290</v>
+        <v>249</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3854,21 +3916,21 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>289</v>
-      </c>
-      <c r="B28" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>287</v>
+        <v>277</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3876,10 +3938,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>286</v>
+        <v>232</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3887,10 +3949,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>285</v>
-      </c>
-      <c r="B31" t="s">
-        <v>284</v>
+        <v>242</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3898,10 +3960,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" t="s">
-        <v>283</v>
+        <v>266</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3909,10 +3971,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>282</v>
-      </c>
-      <c r="B33" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3920,10 +3982,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>280</v>
+        <v>235</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3931,21 +3993,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>279</v>
+        <v>230</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>278</v>
-      </c>
-      <c r="B36" t="s">
-        <v>277</v>
+        <v>237</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3955,8 +4017,8 @@
       <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" t="s">
-        <v>276</v>
+      <c r="B37" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3964,10 +4026,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s">
-        <v>275</v>
+        <v>24</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3975,10 +4037,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>274</v>
-      </c>
-      <c r="B39" t="s">
-        <v>273</v>
+        <v>24</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3986,10 +4048,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>216</v>
-      </c>
-      <c r="B40" t="s">
-        <v>272</v>
+        <v>33</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3997,10 +4059,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>253</v>
-      </c>
-      <c r="B41" t="s">
-        <v>271</v>
+        <v>33</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -4008,10 +4070,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s">
-        <v>270</v>
+        <v>252</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -4019,10 +4081,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>269</v>
-      </c>
-      <c r="B43" t="s">
-        <v>268</v>
+        <v>252</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -4030,10 +4092,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>267</v>
-      </c>
-      <c r="B44" t="s">
-        <v>266</v>
+        <v>103</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -4041,10 +4103,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -4054,19 +4116,19 @@
       <c r="A46" t="s">
         <v>14</v>
       </c>
-      <c r="B46" t="s">
-        <v>264</v>
+      <c r="B46" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" t="s">
-        <v>262</v>
+        <v>14</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -4074,10 +4136,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" t="s">
-        <v>260</v>
+        <v>14</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -4085,10 +4147,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" t="s">
-        <v>259</v>
+        <v>14</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -4096,10 +4158,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>258</v>
-      </c>
-      <c r="B50" t="s">
-        <v>257</v>
+        <v>224</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -4107,16 +4169,19 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" t="s">
-        <v>256</v>
+        <v>279</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C53">
+    <sortCondition ref="C2:C53"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4125,15 +4190,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B7E8D-09FC-2447-A38C-C267C2102ABC}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="134.33203125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4142,10 +4213,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B2" t="s">
-        <v>398</v>
+        <v>421</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>453</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -4153,21 +4224,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B3" t="s">
-        <v>396</v>
+        <v>442</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B4" t="s">
-        <v>394</v>
+        <v>438</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
@@ -4175,10 +4246,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B5" t="s">
-        <v>393</v>
+        <v>446</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -4186,10 +4257,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>392</v>
-      </c>
-      <c r="B6" t="s">
-        <v>391</v>
+        <v>436</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>435</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
@@ -4197,54 +4268,54 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>390</v>
+        <v>450</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B8" t="s">
-        <v>388</v>
+        <v>452</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>451</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>387</v>
-      </c>
-      <c r="B9" t="s">
-        <v>386</v>
+        <v>440</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B10" t="s">
-        <v>384</v>
+        <v>444</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
@@ -4252,10 +4323,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" t="s">
-        <v>382</v>
+        <v>457</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -4263,32 +4334,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" t="s">
-        <v>381</v>
+        <v>448</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" t="s">
-        <v>380</v>
+        <v>455</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>454</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B15" t="s">
-        <v>379</v>
+        <v>341</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>340</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -4296,32 +4367,32 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>378</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>377</v>
+        <v>303</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B18" t="s">
-        <v>375</v>
+        <v>217</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -4329,10 +4400,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>374</v>
+        <v>301</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -4340,10 +4411,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>373</v>
-      </c>
-      <c r="B20" t="s">
-        <v>372</v>
+        <v>301</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -4351,10 +4422,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" t="s">
-        <v>371</v>
+        <v>301</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -4362,10 +4433,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" t="s">
-        <v>370</v>
+        <v>119</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -4373,21 +4444,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>434</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>368</v>
-      </c>
-      <c r="B24" t="s">
-        <v>367</v>
+        <v>344</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -4395,10 +4466,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>366</v>
-      </c>
-      <c r="B25" t="s">
-        <v>365</v>
+        <v>317</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -4406,10 +4477,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>364</v>
+        <v>337</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -4417,32 +4488,32 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>363</v>
-      </c>
-      <c r="B27" t="s">
-        <v>362</v>
+        <v>323</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>361</v>
-      </c>
-      <c r="B28" t="s">
-        <v>360</v>
+        <v>259</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" t="s">
-        <v>359</v>
+        <v>332</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -4450,10 +4521,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>358</v>
+        <v>315</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -4461,10 +4532,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>335</v>
-      </c>
-      <c r="B31" t="s">
-        <v>357</v>
+        <v>123</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -4472,10 +4543,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>356</v>
-      </c>
-      <c r="B32" t="s">
-        <v>355</v>
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -4483,32 +4554,32 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" t="s">
-        <v>354</v>
+        <v>3</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" t="s">
-        <v>353</v>
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>352</v>
-      </c>
-      <c r="B35" t="s">
-        <v>351</v>
+        <v>151</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -4516,10 +4587,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>335</v>
-      </c>
-      <c r="B36" t="s">
-        <v>350</v>
+        <v>249</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -4527,10 +4598,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>349</v>
-      </c>
-      <c r="B37" t="s">
-        <v>348</v>
+        <v>310</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -4538,10 +4609,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>347</v>
-      </c>
-      <c r="B38" t="s">
-        <v>346</v>
+        <v>329</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -4549,10 +4620,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>332</v>
-      </c>
-      <c r="B39" t="s">
-        <v>345</v>
+        <v>160</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -4560,21 +4631,21 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>344</v>
+        <v>339</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" t="s">
-        <v>343</v>
+        <v>298</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -4582,21 +4653,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" t="s">
-        <v>342</v>
+        <v>298</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>341</v>
-      </c>
-      <c r="B43" t="s">
-        <v>340</v>
+        <v>312</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -4604,10 +4675,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>339</v>
-      </c>
-      <c r="B44" t="s">
-        <v>338</v>
+        <v>111</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -4615,21 +4686,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>337</v>
-      </c>
-      <c r="B45" t="s">
-        <v>336</v>
+        <v>295</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>335</v>
-      </c>
-      <c r="B46" t="s">
-        <v>334</v>
+        <v>33</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -4637,10 +4708,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>282</v>
-      </c>
-      <c r="B47" t="s">
-        <v>333</v>
+        <v>155</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -4648,10 +4719,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>332</v>
-      </c>
-      <c r="B48" t="s">
-        <v>331</v>
+        <v>325</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -4659,10 +4730,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>330</v>
+        <v>103</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -4670,10 +4741,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>329</v>
-      </c>
-      <c r="B50" t="s">
-        <v>328</v>
+        <v>305</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -4681,16 +4752,19 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>431</v>
       </c>
       <c r="B51" t="s">
-        <v>327</v>
+        <v>430</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C53">
+    <sortCondition ref="C2:C53"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4699,15 +4773,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2749DD3C-7E2C-B348-81C2-F6E4FB9457C1}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="133.6640625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4716,21 +4796,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>475</v>
+        <v>469</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>474</v>
-      </c>
-      <c r="B3" t="s">
-        <v>473</v>
+        <v>466</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -4738,32 +4818,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>472</v>
+        <v>475</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B5" t="s">
-        <v>470</v>
+        <v>438</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B6" t="s">
-        <v>468</v>
+        <v>489</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
@@ -4771,54 +4851,54 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" t="s">
-        <v>467</v>
+        <v>464</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>463</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>466</v>
+        <v>413</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>465</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
+        <v>473</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>463</v>
+        <v>481</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B11" t="s">
-        <v>461</v>
+        <v>479</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
@@ -4826,21 +4906,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>407</v>
-      </c>
-      <c r="B12" t="s">
-        <v>460</v>
+        <v>471</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>459</v>
-      </c>
-      <c r="B13" t="s">
-        <v>458</v>
+        <v>477</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="C13" t="s">
         <v>58</v>
@@ -4848,21 +4928,21 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14" t="s">
-        <v>457</v>
+        <v>485</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B15" t="s">
-        <v>455</v>
+        <v>487</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>486</v>
       </c>
       <c r="C15" t="s">
         <v>58</v>
@@ -4870,21 +4950,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>454</v>
+        <v>483</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B17" t="s">
-        <v>453</v>
+        <v>93</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -4892,32 +4972,32 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>452</v>
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" t="s">
-        <v>451</v>
+        <v>403</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>450</v>
-      </c>
-      <c r="B20" t="s">
-        <v>449</v>
+        <v>347</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -4925,10 +5005,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>448</v>
+        <v>359</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -4936,10 +5016,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>447</v>
-      </c>
-      <c r="B22" t="s">
-        <v>446</v>
+        <v>337</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -4947,10 +5027,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>445</v>
+        <v>461</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -4958,43 +5038,43 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>444</v>
-      </c>
-      <c r="B24" t="s">
-        <v>443</v>
+        <v>385</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>385</v>
-      </c>
-      <c r="B25" t="s">
-        <v>442</v>
+        <v>61</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>441</v>
-      </c>
-      <c r="B26" t="s">
-        <v>440</v>
+        <v>355</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>439</v>
-      </c>
-      <c r="B27" t="s">
-        <v>438</v>
+        <v>375</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -5002,43 +5082,43 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>437</v>
-      </c>
-      <c r="B28" t="s">
-        <v>436</v>
+        <v>367</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>435</v>
-      </c>
-      <c r="B29" t="s">
-        <v>434</v>
+        <v>378</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>285</v>
-      </c>
-      <c r="B30" t="s">
-        <v>433</v>
+        <v>349</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>432</v>
-      </c>
-      <c r="B31" t="s">
-        <v>431</v>
+        <v>160</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -5046,10 +5126,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>430</v>
+        <v>357</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -5057,21 +5137,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" t="s">
-        <v>429</v>
+        <v>361</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>428</v>
-      </c>
-      <c r="B34" t="s">
-        <v>427</v>
+        <v>370</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -5079,21 +5159,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>426</v>
+        <v>351</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
-        <v>425</v>
+        <v>351</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -5101,10 +5181,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>424</v>
-      </c>
-      <c r="B37" t="s">
-        <v>423</v>
+        <v>24</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -5112,10 +5192,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>422</v>
-      </c>
-      <c r="B38" t="s">
-        <v>421</v>
+        <v>24</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -5123,10 +5203,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>420</v>
-      </c>
-      <c r="B39" t="s">
-        <v>419</v>
+        <v>24</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -5134,32 +5214,32 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" t="s">
-        <v>418</v>
+        <v>24</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>417</v>
-      </c>
-      <c r="B41" t="s">
-        <v>416</v>
+        <v>24</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>415</v>
-      </c>
-      <c r="B42" t="s">
-        <v>414</v>
+        <v>24</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -5169,8 +5249,8 @@
       <c r="A43" t="s">
         <v>24</v>
       </c>
-      <c r="B43" t="s">
-        <v>413</v>
+      <c r="B43" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -5178,32 +5258,32 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>412</v>
-      </c>
-      <c r="B44" t="s">
-        <v>411</v>
+        <v>389</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>410</v>
-      </c>
-      <c r="B45" t="s">
-        <v>409</v>
+        <v>33</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" t="s">
-        <v>408</v>
+        <v>252</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -5211,10 +5291,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>407</v>
-      </c>
-      <c r="B47" t="s">
-        <v>406</v>
+        <v>252</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -5222,10 +5302,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>405</v>
-      </c>
-      <c r="B48" t="s">
-        <v>404</v>
+        <v>252</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -5233,10 +5313,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>403</v>
-      </c>
-      <c r="B49" t="s">
-        <v>402</v>
+        <v>459</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -5244,27 +5324,30 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" t="s">
-        <v>401</v>
+        <v>364</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" t="s">
-        <v>400</v>
+        <v>14</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C53">
+    <sortCondition ref="C2:C53"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>